--- a/ml/notification_level_raw.xlsx
+++ b/ml/notification_level_raw.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YP\Documents\Imperial\EE4-67\EE4-67-Machine-Learning-Code\ml\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PY\Documents\Imperial\year4\EE4-67\EE4-67-Machine-Learning-Code\ml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{70E29E82-5D16-4B11-BA1F-519F6F0B0E1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0403F024-C79D-46BF-BEED-86DE44A3F3B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24669" windowHeight="9891"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24672" windowHeight="9894" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="notification_lvl" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -142,7 +149,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -743,48 +750,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -800,7 +807,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1095,19 +1102,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="G1" sqref="G1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="4" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -1121,7 +1128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1131,11 +1138,11 @@
       </c>
       <c r="C2">
         <f>IF(H2=$N$2,$O$2,IF(H2=$N$3,$O$3,IF(H2=$N$4,$O$4,IF(H2=$N$5,$O$5,IF(H2=$N$6,$O$6)))))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <f>IF(I2=$N$2,$O$2,IF(I2=$N$3,$O$3,IF(I2=$N$4,$O$4,IF(I2=$N$5,$O$5,IF(I2=$N$6,$O$6)))))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <v>-30</v>
@@ -1159,16 +1166,16 @@
         <v>-60</v>
       </c>
       <c r="O2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B31" si="0">IF(G3=$N$2,$O$2,IF(G3=$N$3,$O$3,IF(G3=$N$4,$O$4,IF(G3=$N$5,$O$5,IF(G3=$N$6,$O$6)))))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C31" si="1">IF(H3=$N$2,$O$2,IF(H3=$N$3,$O$3,IF(H3=$N$4,$O$4,IF(H3=$N$5,$O$5,IF(H3=$N$6,$O$6)))))</f>
@@ -1176,7 +1183,7 @@
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D31" si="2">IF(I3=$N$2,$O$2,IF(I3=$N$3,$O$3,IF(I3=$N$4,$O$4,IF(I3=$N$5,$O$5,IF(I3=$N$6,$O$6)))))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>60</v>
@@ -1203,21 +1210,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1241,24 +1248,24 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1282,20 +1289,20 @@
         <v>30</v>
       </c>
       <c r="O5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <f t="shared" si="2"/>
@@ -1323,24 +1330,24 @@
         <v>60</v>
       </c>
       <c r="O6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7">
         <v>-60</v>
@@ -1358,7 +1365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1368,11 +1375,11 @@
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <v>-30</v>
@@ -1390,13 +1397,13 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
@@ -1422,7 +1429,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1432,11 +1439,11 @@
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10">
         <v>-30</v>
@@ -1454,7 +1461,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1464,11 +1471,11 @@
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G11">
         <v>-30</v>
@@ -1486,13 +1493,13 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
@@ -1518,21 +1525,21 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G13">
         <v>60</v>
@@ -1550,21 +1557,21 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G14">
         <v>30</v>
@@ -1582,7 +1589,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1592,7 +1599,7 @@
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
@@ -1614,17 +1621,17 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <f t="shared" si="2"/>
@@ -1646,17 +1653,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
@@ -1678,21 +1685,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G18">
         <v>60</v>
@@ -1710,21 +1717,21 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G19">
         <v>30</v>
@@ -1742,21 +1749,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G20">
         <v>30</v>
@@ -1774,17 +1781,17 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21">
         <f t="shared" si="2"/>
@@ -1806,13 +1813,13 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
@@ -1820,7 +1827,7 @@
       </c>
       <c r="D22">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G22">
         <v>30</v>
@@ -1838,21 +1845,21 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1870,21 +1877,21 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G24">
         <v>30</v>
@@ -1902,17 +1909,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <f t="shared" si="2"/>
@@ -1934,21 +1941,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D26">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1966,22 +1973,22 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C27">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
       <c r="G27">
         <v>-60</v>
       </c>
@@ -1998,17 +2005,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28">
         <f t="shared" si="2"/>
@@ -2030,21 +2037,21 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G29">
         <v>60</v>
@@ -2062,21 +2069,21 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -2094,21 +2101,21 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
         <v>1</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="2"/>
-        <v>3</v>
       </c>
       <c r="G31">
         <v>60</v>
